--- a/DETS-backend/src/main/resources/user_test_excel.xlsx
+++ b/DETS-backend/src/main/resources/user_test_excel.xlsx
@@ -996,13 +996,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1034,6 +1034,22 @@
       </c>
       <c r="B4">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
